--- a/Data/Raw_Warehouses.xlsx
+++ b/Data/Raw_Warehouses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Cert-Print-Agent\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\Cert-Agent-V2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166BB0E-DD36-4144-8E83-FA10966468B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCD84A-5A49-4410-9D30-D857C651228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BB69F86-4888-483B-8C6D-6756F82F0AB9}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="560">
   <si>
     <t>Marjoram</t>
   </si>
@@ -1748,19 +1748,42 @@
   </si>
   <si>
     <t>Cilantro sD</t>
+  </si>
+  <si>
+    <t>lot 2601</t>
+  </si>
+  <si>
+    <t>lot 2602</t>
+  </si>
+  <si>
+    <t>lot 2603</t>
+  </si>
+  <si>
+    <t>lot 2604</t>
+  </si>
+  <si>
+    <t>lot 2605</t>
+  </si>
+  <si>
+    <t>lot 2606</t>
+  </si>
+  <si>
+    <t>lot 2607</t>
+  </si>
+  <si>
+    <t>lot 2608</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="173" formatCode="\L\o\t\ 0"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2922,13 +2945,13 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2938,77 +2961,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="166">
-    <dxf>
-      <numFmt numFmtId="173" formatCode="\L\o\t\ 0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3316,6 +3268,30 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -6581,6 +6557,53 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6805,198 +6828,198 @@
   <autoFilter ref="A1:U362" xr:uid="{F1FF5F87-68B9-43FE-8EB4-EBD37BE1DBCC}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{E89AEF52-FC65-43A4-BAF6-227FEC816FFC}" name="NO" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{3F0145A3-226D-4E60-A6A0-A06F01F0F59E}" name="Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{003EA574-0DB2-4A01-9702-81AF64F45E7C}" name="Lot Num." dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{CC4C443D-274A-45E7-9F56-86D37D5E7B37}" name="Supplier" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{81116793-5E61-48A3-B86E-ABD44991B149}" name="Product" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{4988D7F1-3DC0-4C53-9582-B70D20A1C86D}" name="Type" dataDxfId="160"/>
-    <tableColumn id="7" xr3:uid="{0E80C67B-0797-477A-8F67-01965B18D8FB}" name="Pesticide" dataDxfId="159"/>
-    <tableColumn id="8" xr3:uid="{AB36796B-B81A-4D3D-9668-6B19ECC6413D}" name="Pack Kind" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{B96D2C4A-0CD8-44F7-BBA6-805AC6EE6C1C}" name="Pack Num." dataDxfId="157"/>
-    <tableColumn id="10" xr3:uid="{4DEB7B65-41CD-4544-B32C-E2D528FE1C99}" name="Gross Wt." dataDxfId="156"/>
-    <tableColumn id="11" xr3:uid="{C38701BC-29A3-401F-A6FC-60E855ED08C0}" name="Pskal" dataDxfId="155"/>
-    <tableColumn id="12" xr3:uid="{335D8EE9-D4AC-491A-B170-C000D94C72B1}" name="Pack Wt." dataDxfId="154"/>
-    <tableColumn id="13" xr3:uid="{0A59AAAF-9BB9-4CB5-8A44-BB6B0811FEEC}" name="Wt. Befor ratio" dataDxfId="153">
+    <tableColumn id="2" xr3:uid="{3F0145A3-226D-4E60-A6A0-A06F01F0F59E}" name="Date" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{003EA574-0DB2-4A01-9702-81AF64F45E7C}" name="Lot Num." dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{CC4C443D-274A-45E7-9F56-86D37D5E7B37}" name="Supplier" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{81116793-5E61-48A3-B86E-ABD44991B149}" name="Product" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{4988D7F1-3DC0-4C53-9582-B70D20A1C86D}" name="Type" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{0E80C67B-0797-477A-8F67-01965B18D8FB}" name="Pesticide" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{AB36796B-B81A-4D3D-9668-6B19ECC6413D}" name="Pack Kind" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{B96D2C4A-0CD8-44F7-BBA6-805AC6EE6C1C}" name="Pack Num." dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{4DEB7B65-41CD-4544-B32C-E2D528FE1C99}" name="Gross Wt." dataDxfId="154"/>
+    <tableColumn id="11" xr3:uid="{C38701BC-29A3-401F-A6FC-60E855ED08C0}" name="Pskal" dataDxfId="153"/>
+    <tableColumn id="12" xr3:uid="{335D8EE9-D4AC-491A-B170-C000D94C72B1}" name="Pack Wt." dataDxfId="152"/>
+    <tableColumn id="13" xr3:uid="{0A59AAAF-9BB9-4CB5-8A44-BB6B0811FEEC}" name="Wt. Befor ratio" dataDxfId="151">
       <calculatedColumnFormula>Tbl_2026[[#This Row],[Gross Wt.]]-(Tbl_2026[[#This Row],[Pskal]]+Tbl_2026[[#This Row],[Pack Wt.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{64FDE058-B15D-454E-A82A-778E83B57B5F}" name="Ratio" dataDxfId="152" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{53FCB485-4269-4375-BCEC-0129AE245C57}" name="Wt. After Ratio" dataDxfId="151">
+    <tableColumn id="14" xr3:uid="{64FDE058-B15D-454E-A82A-778E83B57B5F}" name="Ratio" dataDxfId="150" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{53FCB485-4269-4375-BCEC-0129AE245C57}" name="Wt. After Ratio" dataDxfId="149">
       <calculatedColumnFormula>Tbl_2026[[#This Row],[Wt. Befor ratio]]*Tbl_2026[[#This Row],[Ratio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{DECE4302-E995-4933-879C-9223245703E2}" name="Release Status" dataDxfId="150"/>
-    <tableColumn id="17" xr3:uid="{526238C2-9EEE-4189-BB07-1DA0969A5A14}" name="Release Num." dataDxfId="149"/>
-    <tableColumn id="18" xr3:uid="{745913DF-FC72-4762-843C-9C9C1D99B627}" name="Release Date" dataDxfId="148"/>
-    <tableColumn id="19" xr3:uid="{7330BDB3-F0EA-4DB4-B903-4621AD604A75}" name="Work order Num." dataDxfId="147"/>
-    <tableColumn id="20" xr3:uid="{C1827472-ADE8-4012-AF94-4247598714C8}" name="Store" dataDxfId="146"/>
-    <tableColumn id="21" xr3:uid="{83E9E07B-D9F3-416F-B9A3-0540E19BED8D}" name="Notes" dataDxfId="145"/>
+    <tableColumn id="16" xr3:uid="{DECE4302-E995-4933-879C-9223245703E2}" name="Release Status" dataDxfId="148"/>
+    <tableColumn id="17" xr3:uid="{526238C2-9EEE-4189-BB07-1DA0969A5A14}" name="Release Num." dataDxfId="147"/>
+    <tableColumn id="18" xr3:uid="{745913DF-FC72-4762-843C-9C9C1D99B627}" name="Release Date" dataDxfId="146"/>
+    <tableColumn id="19" xr3:uid="{7330BDB3-F0EA-4DB4-B903-4621AD604A75}" name="Work order Num." dataDxfId="145"/>
+    <tableColumn id="20" xr3:uid="{C1827472-ADE8-4012-AF94-4247598714C8}" name="Store" dataDxfId="144"/>
+    <tableColumn id="21" xr3:uid="{83E9E07B-D9F3-416F-B9A3-0540E19BED8D}" name="Notes" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E696743D-864A-4C0F-A4AB-EC7D4779B58C}" name="Table13" displayName="Table13" ref="K1:L26" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E696743D-864A-4C0F-A4AB-EC7D4779B58C}" name="Table13" displayName="Table13" ref="K1:L26" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="K1:L26" xr:uid="{E696743D-864A-4C0F-A4AB-EC7D4779B58C}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{7B9C53DF-A9EF-4306-920D-11F701AFFF71}" name="Spec" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{848DA45C-2F7B-45B0-A6E7-6E29CBF95BFF}" name="المواصفات" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{7B9C53DF-A9EF-4306-920D-11F701AFFF71}" name="Spec" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{848DA45C-2F7B-45B0-A6E7-6E29CBF95BFF}" name="المواصفات" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{96900AF1-AEDF-44B1-929B-80C458C06660}" name="Tbl_2025" displayName="Tbl_2025" ref="A1:U112" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{96900AF1-AEDF-44B1-929B-80C458C06660}" name="Tbl_2025" displayName="Tbl_2025" ref="A1:U112" totalsRowShown="0" headerRowDxfId="142" dataDxfId="140" headerRowBorderDxfId="141">
   <autoFilter ref="A1:U112" xr:uid="{96900AF1-AEDF-44B1-929B-80C458C06660}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{1A0B48EC-8C91-4C49-A0A3-89C1A630EB4A}" name="NO" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{068EC7CD-52F1-4F8F-B2A1-8B810705667E}" name="Date" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{C17A8015-1BE3-41C4-95E7-91EFDBAF194F}" name="Lot Num." dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{1F701B37-82E9-4C7D-86B4-110C1C9D4D53}" name="Supplier" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{6EC017E1-6923-41BB-BEA3-E7497D7A020E}" name="Product" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{2F2425AA-C71A-4CA5-BCB5-220FC21FF33A}" name="Type" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{47004056-5546-4CCF-8B3B-0614C05E2531}" name="Pesticide" dataDxfId="135"/>
-    <tableColumn id="8" xr3:uid="{F7253F18-7660-415A-A81C-22F10371256C}" name="Pack Kind" dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{55582A83-58C6-4DAD-AA6B-A7762CF46767}" name="Pack Num." dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{432D616E-8AD8-4965-AD1F-DF96521E0730}" name="Gross Wt." dataDxfId="132"/>
-    <tableColumn id="11" xr3:uid="{71CDBFE5-FBD4-4D50-8DA9-2C5B508C60F7}" name="Pskal" dataDxfId="131"/>
-    <tableColumn id="12" xr3:uid="{D4D42D46-21BB-460C-B34A-52183D7128BE}" name="Pack Wt." dataDxfId="130"/>
-    <tableColumn id="13" xr3:uid="{A68D9DB5-8115-4FD9-95C5-11EA9BE1675C}" name="Wt. Befor ratio" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{A7AFA752-C6FC-4C24-A0CB-9192FC717EE5}" name="Ratio" dataDxfId="128" dataCellStyle="Percent"/>
-    <tableColumn id="15" xr3:uid="{46FC20A6-DB8C-494A-AF9E-1DA801C51516}" name="Wt. After Ratio" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{1A0B48EC-8C91-4C49-A0A3-89C1A630EB4A}" name="NO" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{068EC7CD-52F1-4F8F-B2A1-8B810705667E}" name="Date" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{C17A8015-1BE3-41C4-95E7-91EFDBAF194F}" name="Lot Num." dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{1F701B37-82E9-4C7D-86B4-110C1C9D4D53}" name="Supplier" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{6EC017E1-6923-41BB-BEA3-E7497D7A020E}" name="Product" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{2F2425AA-C71A-4CA5-BCB5-220FC21FF33A}" name="Type" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{47004056-5546-4CCF-8B3B-0614C05E2531}" name="Pesticide" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{F7253F18-7660-415A-A81C-22F10371256C}" name="Pack Kind" dataDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{55582A83-58C6-4DAD-AA6B-A7762CF46767}" name="Pack Num." dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{432D616E-8AD8-4965-AD1F-DF96521E0730}" name="Gross Wt." dataDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{71CDBFE5-FBD4-4D50-8DA9-2C5B508C60F7}" name="Pskal" dataDxfId="129"/>
+    <tableColumn id="12" xr3:uid="{D4D42D46-21BB-460C-B34A-52183D7128BE}" name="Pack Wt." dataDxfId="128"/>
+    <tableColumn id="13" xr3:uid="{A68D9DB5-8115-4FD9-95C5-11EA9BE1675C}" name="Wt. Befor ratio" dataDxfId="127"/>
+    <tableColumn id="14" xr3:uid="{A7AFA752-C6FC-4C24-A0CB-9192FC717EE5}" name="Ratio" dataDxfId="126" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{46FC20A6-DB8C-494A-AF9E-1DA801C51516}" name="Wt. After Ratio" dataDxfId="125">
       <calculatedColumnFormula>Tbl_2025[[#This Row],[Ratio]]*Tbl_2025[[#This Row],[Wt. Befor ratio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2868C6CD-9A93-49F7-9327-6EFC16D61772}" name="Release Status" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{FE358F4E-5EC2-4CDD-9D39-41E13F2B8253}" name="Release Num." dataDxfId="125"/>
-    <tableColumn id="18" xr3:uid="{DEDD480C-84F8-4D60-8BA6-19E9B2885EF4}" name="Release Date" dataDxfId="124"/>
-    <tableColumn id="19" xr3:uid="{DE3D6FE9-7256-47D0-98A1-A2AEA6328B92}" name="Work order Num." dataDxfId="123"/>
-    <tableColumn id="20" xr3:uid="{81A200D1-434F-40E0-ABA1-851E4E3537D6}" name="Store" dataDxfId="122"/>
-    <tableColumn id="21" xr3:uid="{77FEAD82-73AF-45B4-AC6A-F5D80A30CF67}" name="Notes" dataDxfId="121"/>
+    <tableColumn id="16" xr3:uid="{2868C6CD-9A93-49F7-9327-6EFC16D61772}" name="Release Status" dataDxfId="124"/>
+    <tableColumn id="17" xr3:uid="{FE358F4E-5EC2-4CDD-9D39-41E13F2B8253}" name="Release Num." dataDxfId="123"/>
+    <tableColumn id="18" xr3:uid="{DEDD480C-84F8-4D60-8BA6-19E9B2885EF4}" name="Release Date" dataDxfId="122"/>
+    <tableColumn id="19" xr3:uid="{DE3D6FE9-7256-47D0-98A1-A2AEA6328B92}" name="Work order Num." dataDxfId="121"/>
+    <tableColumn id="20" xr3:uid="{81A200D1-434F-40E0-ABA1-851E4E3537D6}" name="Store" dataDxfId="120"/>
+    <tableColumn id="21" xr3:uid="{77FEAD82-73AF-45B4-AC6A-F5D80A30CF67}" name="Notes" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73F052F8-37D9-45C9-BBAB-C7E1912B97F6}" name="Tbl_2024" displayName="Tbl_2024" ref="A1:U16" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73F052F8-37D9-45C9-BBAB-C7E1912B97F6}" name="Tbl_2024" displayName="Tbl_2024" ref="A1:U16" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114">
   <autoFilter ref="A1:U16" xr:uid="{73F052F8-37D9-45C9-BBAB-C7E1912B97F6}"/>
   <tableColumns count="21">
-    <tableColumn id="21" xr3:uid="{EBCFF662-229E-456A-83C1-6F20FF029D08}" name="NO" dataDxfId="115"/>
-    <tableColumn id="1" xr3:uid="{4D974D8C-3C0F-461F-AD58-3B29D3520193}" name="Date" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{EC4B1B26-3EF3-4B3B-A836-A3B9189A606E}" name="Lot Num." dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{3F9F38F6-88D7-41AA-BC4B-DCDEE727CC45}" name="Supplier" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{66DAB4B3-4658-4B7F-A513-AEAD1EFACE37}" name="Product" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{C601F83B-94A0-40E4-9619-5A3E03EE8BA7}" name="Type" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{248CCB04-E41F-43BD-A8E1-5F1E35B4AD87}" name="Pesticide" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{86F386B7-E837-4E7E-9A6D-4D737A2D4807}" name="Pack Kind" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{C6EBB9E4-ACDB-4DD7-BD56-566A90F6175D}" name="Pack Num." dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{86190DC4-DD98-4512-8E07-1E6D019F352F}" name="Gross Wt." dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{12155990-48D0-4E5E-A8A4-0EE2BE28EF23}" name="Pskal" dataDxfId="105"/>
-    <tableColumn id="11" xr3:uid="{631B8F58-CA13-44E4-9D5C-5FA041488236}" name="Pack Wt." dataDxfId="104"/>
-    <tableColumn id="12" xr3:uid="{9818FC8F-452C-4332-B4F9-0993C159C9FF}" name="Wt. Befor ratio" dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{12A19444-D71A-4230-8005-1BBDAC7ED035}" name="Ratio" dataDxfId="102" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{B78F674E-20D5-499B-9162-412E47D14EF6}" name="Wt. After Ratio" dataDxfId="101">
+    <tableColumn id="21" xr3:uid="{EBCFF662-229E-456A-83C1-6F20FF029D08}" name="NO" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{4D974D8C-3C0F-461F-AD58-3B29D3520193}" name="Date" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{EC4B1B26-3EF3-4B3B-A836-A3B9189A606E}" name="Lot Num." dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{3F9F38F6-88D7-41AA-BC4B-DCDEE727CC45}" name="Supplier" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{66DAB4B3-4658-4B7F-A513-AEAD1EFACE37}" name="Product" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{C601F83B-94A0-40E4-9619-5A3E03EE8BA7}" name="Type" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{248CCB04-E41F-43BD-A8E1-5F1E35B4AD87}" name="Pesticide" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{86F386B7-E837-4E7E-9A6D-4D737A2D4807}" name="Pack Kind" dataDxfId="106"/>
+    <tableColumn id="8" xr3:uid="{C6EBB9E4-ACDB-4DD7-BD56-566A90F6175D}" name="Pack Num." dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{86190DC4-DD98-4512-8E07-1E6D019F352F}" name="Gross Wt." dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{12155990-48D0-4E5E-A8A4-0EE2BE28EF23}" name="Pskal" dataDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{631B8F58-CA13-44E4-9D5C-5FA041488236}" name="Pack Wt." dataDxfId="102"/>
+    <tableColumn id="12" xr3:uid="{9818FC8F-452C-4332-B4F9-0993C159C9FF}" name="Wt. Befor ratio" dataDxfId="101"/>
+    <tableColumn id="13" xr3:uid="{12A19444-D71A-4230-8005-1BBDAC7ED035}" name="Ratio" dataDxfId="100" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{B78F674E-20D5-499B-9162-412E47D14EF6}" name="Wt. After Ratio" dataDxfId="99">
       <calculatedColumnFormula>Tbl_2024[[#This Row],[Wt. Befor ratio]]*N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4C45ED83-722A-40AD-9025-8C84C0C89716}" name="Release Status" dataDxfId="100"/>
-    <tableColumn id="16" xr3:uid="{4C515E84-D102-4B94-A66D-C5F0D28A8D37}" name="Release Num." dataDxfId="99"/>
-    <tableColumn id="17" xr3:uid="{19AB74FA-E600-4E36-AEA9-07739365A495}" name="Release Date" dataDxfId="98"/>
-    <tableColumn id="18" xr3:uid="{CB7741F4-9CB4-45F5-9E09-7C47B0A5FBF4}" name="Work order Num." dataDxfId="97"/>
-    <tableColumn id="19" xr3:uid="{810F9ADB-3552-4FA8-B6DA-B48E07DF1818}" name="Store" dataDxfId="96"/>
-    <tableColumn id="20" xr3:uid="{60E09265-1C70-40D1-B43B-0FAD1D8A1810}" name="Notes" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{4C45ED83-722A-40AD-9025-8C84C0C89716}" name="Release Status" dataDxfId="98"/>
+    <tableColumn id="16" xr3:uid="{4C515E84-D102-4B94-A66D-C5F0D28A8D37}" name="Release Num." dataDxfId="97"/>
+    <tableColumn id="17" xr3:uid="{19AB74FA-E600-4E36-AEA9-07739365A495}" name="Release Date" dataDxfId="96"/>
+    <tableColumn id="18" xr3:uid="{CB7741F4-9CB4-45F5-9E09-7C47B0A5FBF4}" name="Work order Num." dataDxfId="95"/>
+    <tableColumn id="19" xr3:uid="{810F9ADB-3552-4FA8-B6DA-B48E07DF1818}" name="Store" dataDxfId="94"/>
+    <tableColumn id="20" xr3:uid="{60E09265-1C70-40D1-B43B-0FAD1D8A1810}" name="Notes" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00EC2271-14EE-4936-9268-064348E1883E}" name="Tbl_2023" displayName="Tbl_2023" ref="A1:U8" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00EC2271-14EE-4936-9268-064348E1883E}" name="Tbl_2023" displayName="Tbl_2023" ref="A1:U8" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89">
   <autoFilter ref="A1:U8" xr:uid="{00EC2271-14EE-4936-9268-064348E1883E}"/>
   <tableColumns count="21">
-    <tableColumn id="21" xr3:uid="{5D9D58A6-447D-4D07-9FC3-6A29474F5D35}" name="NO" dataDxfId="90"/>
-    <tableColumn id="1" xr3:uid="{9BF13E59-7D53-47E6-B3B0-E137C12A0360}" name="Date" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{DA89B85A-E20C-4883-AA6C-77DFD1D6D391}" name="Lot Num." dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{EA229CDE-63F4-4DD0-AB94-8C72D5D9FC44}" name="Supplier" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{2DE6905B-5D0C-4E40-A9DE-5FD075C4A98E}" name="Product" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{96FA01E4-E7CC-4F7C-AD78-30FE5E8E4CD0}" name="Type" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{5124DE5A-1BC6-4CD0-9525-C0845CF07088}" name="Pesticide" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{0406A881-C10B-4622-9FB2-D1F44CD5080B}" name="Pack Kind" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{EE593108-DAE6-4093-9BFC-3DE9E89B52A2}" name="Pack Num." dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{95F61038-D315-4D6A-9FAF-B4E9FD651ADE}" name="Gross Wt." dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{DEEB342E-FABE-425B-B02D-C9C9A1D3CB77}" name="Pskal" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{60C3BC7F-EDC5-4DBA-9D4A-7C3E30865B3B}" name="Pack Wt." dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{CA73C5D3-21C0-40C8-AC94-9B40C8AC8EDB}" name="Wt. Befor ratio" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{1D95D611-935B-43D8-B2DE-05C218B24FAA}" name="Ratio" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{7E6E0D4A-9DC7-4D0E-842D-7F44205D9C84}" name="Wt. After Ratio" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{B0268A0A-48C9-4CB8-9ED7-4DC730456FAA}" name="Release Status" dataDxfId="75"/>
-    <tableColumn id="16" xr3:uid="{6A9788EF-8510-4544-8C0F-90FD71C25A0C}" name="Release Num." dataDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{2F7E17D5-76F9-4199-821D-7EE0E1D24AEF}" name="Release Date" dataDxfId="73"/>
-    <tableColumn id="18" xr3:uid="{6F75E9DE-DB2C-423C-AB1D-2ADDE4918B5B}" name="Work order Num." dataDxfId="72"/>
-    <tableColumn id="19" xr3:uid="{C4643A3C-B9F0-4112-A7FD-536DCF0112F3}" name="Store" dataDxfId="71"/>
-    <tableColumn id="20" xr3:uid="{7DDB78D4-895B-45A7-B87D-B579F969A06D}" name="Notes" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{5D9D58A6-447D-4D07-9FC3-6A29474F5D35}" name="NO" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{9BF13E59-7D53-47E6-B3B0-E137C12A0360}" name="Date" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{DA89B85A-E20C-4883-AA6C-77DFD1D6D391}" name="Lot Num." dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{EA229CDE-63F4-4DD0-AB94-8C72D5D9FC44}" name="Supplier" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{2DE6905B-5D0C-4E40-A9DE-5FD075C4A98E}" name="Product" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{96FA01E4-E7CC-4F7C-AD78-30FE5E8E4CD0}" name="Type" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{5124DE5A-1BC6-4CD0-9525-C0845CF07088}" name="Pesticide" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{0406A881-C10B-4622-9FB2-D1F44CD5080B}" name="Pack Kind" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{EE593108-DAE6-4093-9BFC-3DE9E89B52A2}" name="Pack Num." dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{95F61038-D315-4D6A-9FAF-B4E9FD651ADE}" name="Gross Wt." dataDxfId="79"/>
+    <tableColumn id="10" xr3:uid="{DEEB342E-FABE-425B-B02D-C9C9A1D3CB77}" name="Pskal" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{60C3BC7F-EDC5-4DBA-9D4A-7C3E30865B3B}" name="Pack Wt." dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{CA73C5D3-21C0-40C8-AC94-9B40C8AC8EDB}" name="Wt. Befor ratio" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{1D95D611-935B-43D8-B2DE-05C218B24FAA}" name="Ratio" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{7E6E0D4A-9DC7-4D0E-842D-7F44205D9C84}" name="Wt. After Ratio" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{B0268A0A-48C9-4CB8-9ED7-4DC730456FAA}" name="Release Status" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{6A9788EF-8510-4544-8C0F-90FD71C25A0C}" name="Release Num." dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{2F7E17D5-76F9-4199-821D-7EE0E1D24AEF}" name="Release Date" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{6F75E9DE-DB2C-423C-AB1D-2ADDE4918B5B}" name="Work order Num." dataDxfId="70"/>
+    <tableColumn id="19" xr3:uid="{C4643A3C-B9F0-4112-A7FD-536DCF0112F3}" name="Store" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{7DDB78D4-895B-45A7-B87D-B579F969A06D}" name="Notes" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F72A6DFE-26B3-4E45-AAD3-B1BEEC5EE027}" name="Table3" displayName="Table3" ref="A1:B46" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F72A6DFE-26B3-4E45-AAD3-B1BEEC5EE027}" name="Table3" displayName="Table3" ref="A1:B46" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
   <autoFilter ref="A1:B46" xr:uid="{F72A6DFE-26B3-4E45-AAD3-B1BEEC5EE027}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FEE72A73-1AA6-49D9-8BD2-E0A0E3B98C28}" name="Products" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{D40D1A18-C914-4E3A-8F55-498C48680F4A}" name="المنتج" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{FEE72A73-1AA6-49D9-8BD2-E0A0E3B98C28}" name="Products" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{D40D1A18-C914-4E3A-8F55-498C48680F4A}" name="المنتج" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FB971072-3445-445B-B95D-93FD26BAADE3}" name="Table4" displayName="Table4" ref="C1:C42" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FB971072-3445-445B-B95D-93FD26BAADE3}" name="Table4" displayName="Table4" ref="C1:C42" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="C1:C42" xr:uid="{FB971072-3445-445B-B95D-93FD26BAADE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C42">
     <sortCondition ref="C2:C42"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{ABDBC925-FB1E-43D7-B7DB-BCECBE9E0216}" name="SupplierName" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{ABDBC925-FB1E-43D7-B7DB-BCECBE9E0216}" name="SupplierName" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4332B7FB-F6B0-41F6-949B-D4DA49DCE999}" name="Table7" displayName="Table7" ref="G1:H6" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4332B7FB-F6B0-41F6-949B-D4DA49DCE999}" name="Table7" displayName="Table7" ref="G1:H6" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="G1:H6" xr:uid="{4332B7FB-F6B0-41F6-949B-D4DA49DCE999}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{407516E2-11B6-41E2-B48D-BB035D6D4340}" name="Packaging" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{AFE66E8D-F005-4BA5-90C6-7F2CD1B8E4FE}" name="التعبئه" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{407516E2-11B6-41E2-B48D-BB035D6D4340}" name="Packaging" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{AFE66E8D-F005-4BA5-90C6-7F2CD1B8E4FE}" name="التعبئه" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6346EB98-D4ED-4895-A338-C53582FF2258}" name="Table14" displayName="Table14" ref="E1:F7" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6346EB98-D4ED-4895-A338-C53582FF2258}" name="Table14" displayName="Table14" ref="E1:F7" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="E1:F7" xr:uid="{6346EB98-D4ED-4895-A338-C53582FF2258}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F7">
     <sortCondition ref="E2:E7"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D69B14B-98FD-433E-99EC-1C6B6CCD54C8}" name="Analysis" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{2C06A9B2-E597-495D-9ABA-DD312FCBEC41}" name="التحاليل" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{0D69B14B-98FD-433E-99EC-1C6B6CCD54C8}" name="Analysis" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2C06A9B2-E597-495D-9ABA-DD312FCBEC41}" name="التحاليل" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20B4F1BC-C3E6-4384-916B-354466C1AD39}" name="Table15" displayName="Table15" ref="I1:J5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20B4F1BC-C3E6-4384-916B-354466C1AD39}" name="Table15" displayName="Table15" ref="I1:J5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="I1:J5" xr:uid="{20B4F1BC-C3E6-4384-916B-354466C1AD39}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{77D5B948-D3CC-4CF6-AC38-AE7D0FA7A990}" name="Status" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{5752E0A5-7843-46F1-A899-F0923C3D0952}" name="الحاله" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{77D5B948-D3CC-4CF6-AC38-AE7D0FA7A990}" name="Status" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5752E0A5-7843-46F1-A899-F0923C3D0952}" name="الحاله" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7302,8 +7325,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7391,8 +7414,8 @@
       <c r="B2" s="193">
         <v>46023</v>
       </c>
-      <c r="C2" s="206">
-        <v>2601</v>
+      <c r="C2" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>60</v>
@@ -7459,8 +7482,8 @@
       <c r="B3" s="193">
         <v>46023</v>
       </c>
-      <c r="C3" s="206">
-        <v>2602</v>
+      <c r="C3" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>60</v>
@@ -7527,8 +7550,8 @@
       <c r="B4" s="193">
         <v>46023</v>
       </c>
-      <c r="C4" s="206">
-        <v>2601</v>
+      <c r="C4" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>58</v>
@@ -7595,8 +7618,8 @@
       <c r="B5" s="193">
         <v>46023</v>
       </c>
-      <c r="C5" s="206">
-        <v>2602</v>
+      <c r="C5" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>58</v>
@@ -7663,8 +7686,8 @@
       <c r="B6" s="193">
         <v>46023</v>
       </c>
-      <c r="C6" s="206">
-        <v>2603</v>
+      <c r="C6" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>58</v>
@@ -7731,8 +7754,8 @@
       <c r="B7" s="193">
         <v>46023</v>
       </c>
-      <c r="C7" s="206">
-        <v>2601</v>
+      <c r="C7" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>58</v>
@@ -7799,8 +7822,8 @@
       <c r="B8" s="193">
         <v>46023</v>
       </c>
-      <c r="C8" s="206">
-        <v>2601</v>
+      <c r="C8" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>45</v>
@@ -7861,8 +7884,8 @@
       <c r="B9" s="193">
         <v>46023</v>
       </c>
-      <c r="C9" s="206">
-        <v>2603</v>
+      <c r="C9" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>60</v>
@@ -7929,8 +7952,8 @@
       <c r="B10" s="193">
         <v>46026</v>
       </c>
-      <c r="C10" s="206">
-        <v>2601</v>
+      <c r="C10" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>27</v>
@@ -7985,8 +8008,8 @@
       <c r="B11" s="193">
         <v>46027</v>
       </c>
-      <c r="C11" s="206">
-        <v>2601</v>
+      <c r="C11" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>95</v>
@@ -8041,8 +8064,8 @@
       <c r="B12" s="193">
         <v>46027</v>
       </c>
-      <c r="C12" s="206">
-        <v>2602</v>
+      <c r="C12" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>95</v>
@@ -8097,8 +8120,8 @@
       <c r="B13" s="193">
         <v>46032</v>
       </c>
-      <c r="C13" s="206">
-        <v>2601</v>
+      <c r="C13" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>512</v>
@@ -8155,8 +8178,8 @@
       <c r="B14" s="193">
         <v>46032</v>
       </c>
-      <c r="C14" s="206">
-        <v>2602</v>
+      <c r="C14" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>512</v>
@@ -8223,8 +8246,8 @@
       <c r="B15" s="193">
         <v>46032</v>
       </c>
-      <c r="C15" s="206">
-        <v>2603</v>
+      <c r="C15" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>512</v>
@@ -8291,8 +8314,8 @@
       <c r="B16" s="193">
         <v>46032</v>
       </c>
-      <c r="C16" s="206">
-        <v>2601</v>
+      <c r="C16" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>513</v>
@@ -8357,8 +8380,8 @@
       <c r="B17" s="193">
         <v>46034</v>
       </c>
-      <c r="C17" s="206">
-        <v>2601</v>
+      <c r="C17" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>27</v>
@@ -8421,8 +8444,8 @@
       <c r="B18" s="193">
         <v>46034</v>
       </c>
-      <c r="C18" s="206">
-        <v>2604</v>
+      <c r="C18" s="206" t="s">
+        <v>555</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>60</v>
@@ -8479,8 +8502,8 @@
       <c r="B19" s="193">
         <v>46034</v>
       </c>
-      <c r="C19" s="206">
-        <v>2605</v>
+      <c r="C19" s="206" t="s">
+        <v>556</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>60</v>
@@ -8537,8 +8560,8 @@
       <c r="B20" s="193">
         <v>46034</v>
       </c>
-      <c r="C20" s="206">
-        <v>2604</v>
+      <c r="C20" s="206" t="s">
+        <v>555</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>58</v>
@@ -8605,8 +8628,8 @@
       <c r="B21" s="193">
         <v>46034</v>
       </c>
-      <c r="C21" s="206">
-        <v>2605</v>
+      <c r="C21" s="206" t="s">
+        <v>556</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>58</v>
@@ -8673,8 +8696,8 @@
       <c r="B22" s="193">
         <v>46034</v>
       </c>
-      <c r="C22" s="206">
-        <v>2606</v>
+      <c r="C22" s="206" t="s">
+        <v>557</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>58</v>
@@ -8741,8 +8764,8 @@
       <c r="B23" s="193">
         <v>46037</v>
       </c>
-      <c r="C23" s="206">
-        <v>2603</v>
+      <c r="C23" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>95</v>
@@ -8797,8 +8820,8 @@
       <c r="B24" s="193">
         <v>46037</v>
       </c>
-      <c r="C24" s="206">
-        <v>2604</v>
+      <c r="C24" s="206" t="s">
+        <v>555</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>95</v>
@@ -8853,8 +8876,8 @@
       <c r="B25" s="193">
         <v>46037</v>
       </c>
-      <c r="C25" s="206">
-        <v>2605</v>
+      <c r="C25" s="206" t="s">
+        <v>556</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>95</v>
@@ -8909,8 +8932,8 @@
       <c r="B26" s="193">
         <v>46037</v>
       </c>
-      <c r="C26" s="206">
-        <v>2606</v>
+      <c r="C26" s="206" t="s">
+        <v>557</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>60</v>
@@ -8977,8 +9000,8 @@
       <c r="B27" s="193">
         <v>46038</v>
       </c>
-      <c r="C27" s="206">
-        <v>2602</v>
+      <c r="C27" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>58</v>
@@ -9045,8 +9068,8 @@
       <c r="B28" s="193">
         <v>46039</v>
       </c>
-      <c r="C28" s="206">
-        <v>2603</v>
+      <c r="C28" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>58</v>
@@ -9113,8 +9136,8 @@
       <c r="B29" s="193">
         <v>46041</v>
       </c>
-      <c r="C29" s="206">
-        <v>2601</v>
+      <c r="C29" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>60</v>
@@ -9169,8 +9192,8 @@
       <c r="B30" s="193">
         <v>46041</v>
       </c>
-      <c r="C30" s="206">
-        <v>2601</v>
+      <c r="C30" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>32</v>
@@ -9227,8 +9250,8 @@
       <c r="B31" s="193">
         <v>46043</v>
       </c>
-      <c r="C31" s="206">
-        <v>2601</v>
+      <c r="C31" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>43</v>
@@ -9293,8 +9316,8 @@
       <c r="B32" s="193">
         <v>46044</v>
       </c>
-      <c r="C32" s="206">
-        <v>2602</v>
+      <c r="C32" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>43</v>
@@ -9359,8 +9382,8 @@
       <c r="B33" s="193">
         <v>46044</v>
       </c>
-      <c r="C33" s="206">
-        <v>2603</v>
+      <c r="C33" s="206" t="s">
+        <v>554</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>43</v>
@@ -9425,8 +9448,8 @@
       <c r="B34" s="193">
         <v>46044</v>
       </c>
-      <c r="C34" s="206">
-        <v>2601</v>
+      <c r="C34" s="206" t="s">
+        <v>552</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>59</v>
@@ -9489,8 +9512,8 @@
       <c r="B35" s="193">
         <v>46046</v>
       </c>
-      <c r="C35" s="206">
-        <v>2607</v>
+      <c r="C35" s="206" t="s">
+        <v>558</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>60</v>
@@ -9547,8 +9570,8 @@
       <c r="B36" s="193">
         <v>46046</v>
       </c>
-      <c r="C36" s="206">
-        <v>2602</v>
+      <c r="C36" s="206" t="s">
+        <v>553</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>60</v>
@@ -9603,8 +9626,8 @@
       <c r="B37" s="193">
         <v>46046</v>
       </c>
-      <c r="C37" s="207">
-        <v>2601</v>
+      <c r="C37" s="207" t="s">
+        <v>552</v>
       </c>
       <c r="D37" s="111" t="s">
         <v>45</v>
@@ -9666,8 +9689,8 @@
       <c r="B38" s="193">
         <v>46047</v>
       </c>
-      <c r="C38" s="208">
-        <v>2601</v>
+      <c r="C38" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>48</v>
@@ -9731,8 +9754,8 @@
       <c r="B39" s="193">
         <v>46047</v>
       </c>
-      <c r="C39" s="208">
-        <v>2601</v>
+      <c r="C39" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>38</v>
@@ -9786,8 +9809,8 @@
       <c r="B40" s="193">
         <v>46047</v>
       </c>
-      <c r="C40" s="208">
-        <v>2602</v>
+      <c r="C40" s="208" t="s">
+        <v>553</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>38</v>
@@ -9841,8 +9864,8 @@
       <c r="B41" s="193">
         <v>46048</v>
       </c>
-      <c r="C41" s="208">
-        <v>2606</v>
+      <c r="C41" s="208" t="s">
+        <v>557</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>95</v>
@@ -9896,8 +9919,8 @@
       <c r="B42" s="193">
         <v>46048</v>
       </c>
-      <c r="C42" s="208">
-        <v>2607</v>
+      <c r="C42" s="208" t="s">
+        <v>558</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>95</v>
@@ -9951,8 +9974,8 @@
       <c r="B43" s="193">
         <v>46049</v>
       </c>
-      <c r="C43" s="208">
-        <v>2602</v>
+      <c r="C43" s="208" t="s">
+        <v>553</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>27</v>
@@ -10006,8 +10029,8 @@
       <c r="B44" s="193">
         <v>46050</v>
       </c>
-      <c r="C44" s="208">
-        <v>2603</v>
+      <c r="C44" s="208" t="s">
+        <v>554</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>27</v>
@@ -10061,8 +10084,8 @@
       <c r="B45" s="193" t="s">
         <v>537</v>
       </c>
-      <c r="C45" s="208">
-        <v>2601</v>
+      <c r="C45" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>29</v>
@@ -10124,8 +10147,8 @@
       <c r="B46" s="193" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="208">
-        <v>2608</v>
+      <c r="C46" s="208" t="s">
+        <v>559</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>95</v>
@@ -10181,8 +10204,8 @@
       <c r="B47" s="193" t="s">
         <v>540</v>
       </c>
-      <c r="C47" s="208">
-        <v>2603</v>
+      <c r="C47" s="208" t="s">
+        <v>554</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>60</v>
@@ -10236,8 +10259,8 @@
       <c r="B48" s="193">
         <v>46024</v>
       </c>
-      <c r="C48" s="208">
-        <v>2608</v>
+      <c r="C48" s="208" t="s">
+        <v>559</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>60</v>
@@ -10293,8 +10316,8 @@
       <c r="B49" s="193">
         <v>46055</v>
       </c>
-      <c r="C49" s="208">
-        <v>2603</v>
+      <c r="C49" s="208" t="s">
+        <v>554</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>38</v>
@@ -10348,8 +10371,8 @@
       <c r="B50" s="193">
         <v>46055</v>
       </c>
-      <c r="C50" s="208">
-        <v>2604</v>
+      <c r="C50" s="208" t="s">
+        <v>555</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>38</v>
@@ -10403,8 +10426,8 @@
       <c r="B51" s="193">
         <v>46055</v>
       </c>
-      <c r="C51" s="208">
-        <v>2601</v>
+      <c r="C51" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>29</v>
@@ -10466,8 +10489,8 @@
       <c r="B52" s="193">
         <v>46055</v>
       </c>
-      <c r="C52" s="208">
-        <v>2601</v>
+      <c r="C52" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>37</v>
@@ -10529,8 +10552,8 @@
       <c r="B53" s="193">
         <v>46055</v>
       </c>
-      <c r="C53" s="208">
-        <v>2602</v>
+      <c r="C53" s="208" t="s">
+        <v>553</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>37</v>
@@ -10592,8 +10615,8 @@
       <c r="B54" s="193">
         <v>46056</v>
       </c>
-      <c r="C54" s="208">
-        <v>2603</v>
+      <c r="C54" s="208" t="s">
+        <v>554</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>37</v>
@@ -10655,8 +10678,8 @@
       <c r="B55" s="193">
         <v>46056</v>
       </c>
-      <c r="C55" s="208">
-        <v>2604</v>
+      <c r="C55" s="208" t="s">
+        <v>555</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>58</v>
@@ -10710,8 +10733,8 @@
       <c r="B56" s="193">
         <v>46056</v>
       </c>
-      <c r="C56" s="208">
-        <v>2601</v>
+      <c r="C56" s="208" t="s">
+        <v>552</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>58</v>
@@ -10767,8 +10790,8 @@
       <c r="B57" s="193">
         <v>46056</v>
       </c>
-      <c r="C57" s="208">
-        <v>2602</v>
+      <c r="C57" s="208" t="s">
+        <v>553</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>58</v>
@@ -20276,72 +20299,72 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:B37 D2:U37 B2:B361 M38:M42 O38:S42 U38:U42 D43:D44 I43:U45 D45:G45 D46:U362 A362:B362">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>$P2="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>$P2="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B42 D38:I42 E43:H44 A43:A361 H45">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$P2="Released"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B42 D38:I42 E43:H44 A43:A361 H45">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$P38="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>$P38="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B361 D2:U37 M38:M42 O38:S42 U38:U42 D43:D44 I43:U45 D45:G45 D46:U362 A362:B362">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>$P2="Released"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C362">
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>$P2="Rejected"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>$P2="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>$P2="Released"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:L42">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>$P38="Released"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>$P38="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>$P38="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N42">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$P38="Released"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$P38="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>$P38="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:T42">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$P38="Released"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$P38="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$P38="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20387,7 +20410,7 @@
   <dimension ref="A1:U112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26954,15 +26977,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:U1 A2:T4 A5:D6 F5:G6 H5:T7 E6 A7:G15 P8:T11 H8:N15 O8:O112 P12:U15 P16:T16 A16:N83 P17:U52 P53:T58 P59:U73 P74:T74 P75:U98 A84:G97 I84:N98 H84:H112 A98:F98 G98:G99 P100:R100">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$P1="Canceled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:U1 A2:T11 A12:U15 A16:T16 A17:U52 A53:T58 A59:U73 A74:T74 A75:U112">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$P1="Rejected"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$P1="Released"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27961,13 +27984,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:U9 A10:T11 A12:U13 A14:T15 A16:U16">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$P2="Rejected"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$P2="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$P2="Released"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28492,13 +28515,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:U16">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$P2="Rejected"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$P2="Canceled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$P2="Released"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29313,7 +29336,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K24 K26">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="6">
@@ -32535,8 +32558,8 @@
       <c r="B14" s="105">
         <v>46041</v>
       </c>
-      <c r="C14" s="104">
-        <v>2601</v>
+      <c r="C14" s="104" t="str">
+        <v>lot 2601</v>
       </c>
       <c r="D14" s="104" t="str">
         <v>نصرى وسمين</v>
@@ -32600,8 +32623,8 @@
       <c r="B15" s="105">
         <v>46046</v>
       </c>
-      <c r="C15" s="104">
-        <v>2602</v>
+      <c r="C15" s="104" t="str">
+        <v>lot 2602</v>
       </c>
       <c r="D15" s="104" t="str">
         <v>نصرى وسمين</v>
@@ -32665,8 +32688,8 @@
       <c r="B16" s="105" t="str">
         <v>31/1/2026</v>
       </c>
-      <c r="C16" s="104">
-        <v>2603</v>
+      <c r="C16" s="104" t="str">
+        <v>lot 2603</v>
       </c>
       <c r="D16" s="104" t="str">
         <v>نصرى وسمين</v>
@@ -36706,18 +36729,18 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:U1007">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B10=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A10&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$P10="Released"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:U1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
